--- a/biology/Médecine/Pierre-Augustin_Béclard/Pierre-Augustin_Béclard.xlsx
+++ b/biology/Médecine/Pierre-Augustin_Béclard/Pierre-Augustin_Béclard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre-Augustin_B%C3%A9clard</t>
+          <t>Pierre-Augustin_Béclard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Augustin Béclard, né le 12 octobre 1785 à Angers et mort le 16 mars 1825 à Paris[1], est un chirurgien, professeur et anatomiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Augustin Béclard, né le 12 octobre 1785 à Angers et mort le 16 mars 1825 à Paris, est un chirurgien, professeur et anatomiste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre-Augustin_B%C3%A9clard</t>
+          <t>Pierre-Augustin_Béclard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Pierre-Augustin Béclard est le cousin du chirurgien François-Philippe Béclard et le fils de Philippe François, un marchand d'étoffes[2].
-Il est le 7e enfant et le 5e garçon d'une famille de onze[3].
-En 1797, il épouse Berthe Julie Dubois, fille d'Antoine Dubois, professeur à la faculté de médecine de Paris[3].
-Il est le père du médecin physiologiste Jules Auguste Béclard (1819-1887) et de  Léon Philippe Béclard (1819-1864) ministre plénipotentiaire au Maroc[3].
-Études et carrière
-En 1797, il entre à l'école centrale d'Angers, où il se lie d'amitié avec Pierre-Jean David d'Angers (1788-1856). En 1799, il est employé dans le petit commerce, d'où il se fait renvoyer pour manque d'intérêt pour son travail[3].
-Il suit alors les pas de son cousin en commençant des études de médecine à Angers en 1802. Il est interne de l'Hôtel-Dieu d'Angers de 1804 à 1808[3].
-Il poursuit ses études à Paris où il est reçu premier au concours de l'externat en 1809, et reçu premier au concours de l'internat en 1810 pour exercer à l'hôpital des Enfants-malades[3].
-En 1811, il devient prosecteur de la faculté de Médecine, et en 1812 il est nommé chef des travaux anatomiques de la faculté en remplacement de Guillaume Dupuytren (1777-1835). Il obtient son doctorat en médecine avec sa thèse : Propositions sur quelques points de médecine (1813)[3].
-Il est successivement chirurgien en chef de la Charité (1813), chirurgien de La Pitié (1815), professeur adjoint d'anatomie et de physiologie (1818), et professeur d'anatomie (1823)[3].
-Il décède en 1825 et est enterré au Cimetière du Père-Lachaise. Le successeur à son poste est Jean Cruveilhier (1791-1874)[3].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Augustin Béclard est le cousin du chirurgien François-Philippe Béclard et le fils de Philippe François, un marchand d'étoffes.
+Il est le 7e enfant et le 5e garçon d'une famille de onze.
+En 1797, il épouse Berthe Julie Dubois, fille d'Antoine Dubois, professeur à la faculté de médecine de Paris.
+Il est le père du médecin physiologiste Jules Auguste Béclard (1819-1887) et de  Léon Philippe Béclard (1819-1864) ministre plénipotentiaire au Maroc.
 </t>
         </is>
       </c>
@@ -535,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre-Augustin_B%C3%A9clard</t>
+          <t>Pierre-Augustin_Béclard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,13 +560,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il appliqua avec succès l'anatomie à la chirurgie, et se distingua par l'éclat de son enseignement[4].
-Il donna en 1821 une édition de l'Anatomie générale de Marie François Xavier Bichat (1771-1802), avec notes et additions, 1821, et publia lui-même, en 1823, des Éléments d'anatomie, longtemps classiques.
+          <t>Études et carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1797, il entre à l'école centrale d'Angers, où il se lie d'amitié avec Pierre-Jean David d'Angers (1788-1856). En 1799, il est employé dans le petit commerce, d'où il se fait renvoyer pour manque d'intérêt pour son travail.
+Il suit alors les pas de son cousin en commençant des études de médecine à Angers en 1802. Il est interne de l'Hôtel-Dieu d'Angers de 1804 à 1808.
+Il poursuit ses études à Paris où il est reçu premier au concours de l'externat en 1809, et reçu premier au concours de l'internat en 1810 pour exercer à l'hôpital des Enfants-malades.
+En 1811, il devient prosecteur de la faculté de Médecine, et en 1812 il est nommé chef des travaux anatomiques de la faculté en remplacement de Guillaume Dupuytren (1777-1835). Il obtient son doctorat en médecine avec sa thèse : Propositions sur quelques points de médecine (1813).
+Il est successivement chirurgien en chef de la Charité (1813), chirurgien de La Pitié (1815), professeur adjoint d'anatomie et de physiologie (1818), et professeur d'anatomie (1823).
+Il décède en 1825 et est enterré au Cimetière du Père-Lachaise. Le successeur à son poste est Jean Cruveilhier (1791-1874).
 </t>
         </is>
       </c>
@@ -567,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pierre-Augustin_B%C3%A9clard</t>
+          <t>Pierre-Augustin_Béclard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,16 +602,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Éponymie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Amputation de Béclard, un procédé de désarticulation de la hanche[5] ;
-arcade ou anastomose de Béclard ;
-hernie de Béclard, hernie crurale à travers l'orifice de la veine saphène[5],[6];
-noyau ou point d'ossification de Béclard, localisé dans le cartilage de l'épiphyse inférieure du fémur, et apparaissant normalement vers la fin de la vie fœtale, utilisé en médecine médico-légale pour déterminer l'âge d'un nouveau-né (signe de Béclard)[5],[7];
-Triangle de Béclard[8].</t>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il appliqua avec succès l'anatomie à la chirurgie, et se distingua par l'éclat de son enseignement.
+Il donna en 1821 une édition de l'Anatomie générale de Marie François Xavier Bichat (1771-1802), avec notes et additions, 1821, et publia lui-même, en 1823, des Éléments d'anatomie, longtemps classiques.
+</t>
         </is>
       </c>
     </row>
@@ -601,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pierre-Augustin_B%C3%A9clard</t>
+          <t>Pierre-Augustin_Béclard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +636,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amputation de Béclard, un procédé de désarticulation de la hanche ;
+arcade ou anastomose de Béclard ;
+hernie de Béclard, hernie crurale à travers l'orifice de la veine saphène,;
+noyau ou point d'ossification de Béclard, localisé dans le cartilage de l'épiphyse inférieure du fémur, et apparaissant normalement vers la fin de la vie fœtale, utilisé en médecine médico-légale pour déterminer l'âge d'un nouveau-né (signe de Béclard),;
+Triangle de Béclard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre-Augustin_Béclard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre-Augustin_B%C3%A9clard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elémens d'anatomie générale ou Description de tous les genres d'organes qui composent le corps humain, [Deuxième édition accompagnée d'une Notice sur la vie et les travaux de l'auteur par le Dr Ollivier], Paris, Béchet jeune, lire en ligne sur Gallica.</t>
         </is>
